--- a/Figuras y Tablas/Resonancia Schumann con dos modelos.xlsx
+++ b/Figuras y Tablas/Resonancia Schumann con dos modelos.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\Desktop\CARPETA PRUEBA\Figuras y Tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\PSB---Descargas-electricas-en-la-atmosfera-1\Figuras y Tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{491638ED-D35E-40C5-BD85-D82836735527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A24DC6-2E21-4875-9C09-1B7F6C14F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{05E59BB3-9E4C-44C5-BECE-C9B6F43E538B}"/>
+    <workbookView xWindow="7710" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{05E59BB3-9E4C-44C5-BECE-C9B6F43E538B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -445,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -472,7 +473,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -490,9 +491,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,6 +824,508 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B762-40B5-942C-DFBB02AE326D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1421339823"/>
+        <c:axId val="1421333583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1421339823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421333583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1421333583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421339823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6818147323889788E-2"/>
+          <c:y val="0.15873549029428918"/>
+          <c:w val="0.89664129483814525"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Datos Experimentales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$7:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AA2-4C7A-ABC9-1C512EE46879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Aproximación 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$7:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.576581674976708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.319176831461593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.90722832656397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.446087951725104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.962924686987336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.467986119463589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.966009666302696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AA2-4C7A-ABC9-1C512EE46879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aproximación 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$J$7:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.475419883736777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.143514801291147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.658647484830443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.12509027850281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.569734716524451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.002723857937667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.428746823247856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AA2-4C7A-ABC9-1C512EE46879}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1052,6 +1556,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1568,20 +2112,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>702197</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>182120</xdr:rowOff>
+      <xdr:colOff>456707</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>340411</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>163660</xdr:rowOff>
+      <xdr:colOff>94921</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>134200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1593,6 +2653,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA50DD6-537F-4B91-A7C7-0B57E9508921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1980,20 +3083,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C262BE6-E3E5-46BF-B9E8-A75BE1D2C394}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A21" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +3117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>299705500</v>
       </c>
@@ -2034,8 +3138,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
@@ -2073,20 +3177,20 @@
       </c>
       <c r="N6" s="25"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <f>A2/(2*PI()*C2)</f>
         <v>7.4787726241498955</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7">
         <f>(1-$F$2/$C$2)/1.006*E7*(E7+1)</f>
         <v>1.9569008027719539</v>
       </c>
-      <c r="C7" s="44">
-        <f>4*$A$7^2*B7</f>
+      <c r="C7">
+        <f t="shared" ref="C7:C13" si="0">4*$A$7^2*B7</f>
         <v>437.81381562281558</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <f>E2/(8.85418*10^-12*1.0006*2*PI())</f>
         <v>179.64340840988422</v>
       </c>
@@ -2109,7 +3213,7 @@
         <v>35.07767145564123</v>
       </c>
       <c r="J7" s="28">
-        <f>SQRT(C7-$D$7)/2</f>
+        <f t="shared" ref="J7:J13" si="1">SQRT(C7-$D$7)/2</f>
         <v>8.033841036716673</v>
       </c>
       <c r="K7" s="34"/>
@@ -2118,22 +3222,22 @@
         <v>2.6033338022563597</v>
       </c>
       <c r="M7" s="24">
-        <f>-$D$7/2</f>
+        <f t="shared" ref="M7:M13" si="2">-$D$7/2</f>
         <v>-89.821704204942108</v>
       </c>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="44">
-        <f t="shared" ref="B8:B13" si="0">(1-$F$2/$C$2)/1.006*E8*(E8+1)</f>
+      <c r="B8">
+        <f t="shared" ref="B8:B13" si="3">(1-$F$2/$C$2)/1.006*E8*(E8+1)</f>
         <v>5.8707024083158617</v>
       </c>
-      <c r="C8" s="44">
-        <f>4*$A$7^2*B8</f>
+      <c r="C8">
+        <f t="shared" si="0"/>
         <v>1313.4414468684467</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="19">
         <v>2</v>
       </c>
@@ -2153,31 +3257,31 @@
         <v>28.106131688542607</v>
       </c>
       <c r="J8" s="30">
-        <f>SQRT(C8-$D$7)/2</f>
+        <f t="shared" si="1"/>
         <v>16.835958826709</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="38">
-        <f t="shared" ref="L8:L13" si="1">ABS(J8-F8)/F8*100</f>
+        <f t="shared" ref="L8:L13" si="4">ABS(J8-F8)/F8*100</f>
         <v>17.733977809153838</v>
       </c>
       <c r="M8" s="26">
-        <f>-$D$7/2</f>
+        <f t="shared" si="2"/>
         <v>-89.821704204942108</v>
       </c>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
-      <c r="B9" s="44">
+      <c r="B9">
+        <f t="shared" si="3"/>
+        <v>11.741404816631723</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>11.741404816631723</v>
-      </c>
-      <c r="C9" s="44">
-        <f>4*$A$7^2*B9</f>
         <v>2626.8828937368935</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="19">
         <v>3</v>
       </c>
@@ -2197,31 +3301,31 @@
         <v>24.553982339249853</v>
       </c>
       <c r="J9" s="30">
-        <f>SQRT(C9-$D$7)/2</f>
+        <f t="shared" si="1"/>
         <v>24.73479070725589</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18.917263015653312</v>
       </c>
       <c r="M9" s="26">
-        <f>-$D$7/2</f>
+        <f t="shared" si="2"/>
         <v>-89.821704204942108</v>
       </c>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
-      <c r="B10" s="44">
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>19.569008027719541</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>19.569008027719541</v>
-      </c>
-      <c r="C10" s="44">
-        <f>4*$A$7^2*B10</f>
         <v>4378.1381562281567</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="19">
         <v>4</v>
       </c>
@@ -2241,31 +3345,31 @@
         <v>22.513142680311734</v>
       </c>
       <c r="J10" s="30">
-        <f>SQRT(C10-$D$7)/2</f>
+        <f t="shared" si="1"/>
         <v>32.397896335326593</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18.673612949914258</v>
       </c>
       <c r="M10" s="26">
-        <f>-$D$7/2</f>
+        <f t="shared" si="2"/>
         <v>-89.821704204942108</v>
       </c>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
-      <c r="B11" s="44">
+      <c r="B11">
+        <f t="shared" si="3"/>
+        <v>29.353512041579311</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>29.353512041579311</v>
-      </c>
-      <c r="C11" s="44">
-        <f>4*$A$7^2*B11</f>
         <v>6567.2072343422351</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="19">
         <v>5</v>
       </c>
@@ -2285,31 +3389,31 @@
         <v>21.192084872743607</v>
       </c>
       <c r="J11" s="30">
-        <f>SQRT(C11-$D$7)/2</f>
+        <f t="shared" si="1"/>
         <v>39.961118058471385</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18.228159936305882</v>
       </c>
       <c r="M11" s="26">
-        <f>-$D$7/2</f>
+        <f t="shared" si="2"/>
         <v>-89.821704204942108</v>
       </c>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
-      <c r="B12" s="44">
+      <c r="B12">
+        <f t="shared" si="3"/>
+        <v>41.094916858211029</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>41.094916858211029</v>
-      </c>
-      <c r="C12" s="44">
-        <f>4*$A$7^2*B12</f>
         <v>9194.0901280791277</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="19">
         <v>6</v>
       </c>
@@ -2329,28 +3433,28 @@
         <v>21.473649422214514</v>
       </c>
       <c r="J12" s="30">
-        <f>SQRT(C12-$D$7)/2</f>
+        <f t="shared" si="1"/>
         <v>47.472220086249507</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18.977995203632855</v>
       </c>
       <c r="M12" s="26">
-        <f>-$D$7/2</f>
+        <f t="shared" si="2"/>
         <v>-89.821704204942108</v>
       </c>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
+        <f t="shared" si="3"/>
+        <v>54.793222477614705</v>
+      </c>
+      <c r="C13" s="45">
         <f t="shared" si="0"/>
-        <v>54.793222477614705</v>
-      </c>
-      <c r="C13" s="46">
-        <f>4*$A$7^2*B13</f>
         <v>12258.786837438836</v>
       </c>
       <c r="D13" s="1"/>
@@ -2373,16 +3477,16 @@
         <v>21.930304283883871</v>
       </c>
       <c r="J13" s="32">
-        <f>SQRT(C13-$D$7)/2</f>
+        <f t="shared" si="1"/>
         <v>54.952578258506108</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19.722392720056884</v>
       </c>
       <c r="M13" s="27">
-        <f>-$D$7/2</f>
+        <f t="shared" si="2"/>
         <v>-89.821704204942108</v>
       </c>
       <c r="N13" s="33"/>
@@ -2391,4 +3495,659 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C110A3E-DD31-45C9-B703-6E745094913D}">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>299705500</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6370000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <f>10^-11</f>
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="F2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43">
+        <f>A2/(2*PI()*C2)</f>
+        <v>7.4881651172414498</v>
+      </c>
+      <c r="B7">
+        <f>(1-$F$2/$C$2)/1.006*E7*(E7+1)</f>
+        <v>1.9568616558108181</v>
+      </c>
+      <c r="C7">
+        <f>4*$A$7^2*B7</f>
+        <v>438.90541520816612</v>
+      </c>
+      <c r="D7" s="44">
+        <f>E2/(8.85418*10^-12*1.0006*2*PI())</f>
+        <v>0.17964340840988421</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
+        <v>7.83</v>
+      </c>
+      <c r="G7" s="14">
+        <f>Hoja1!$A$2/(2*3.14159265359*Hoja1!$C$2)*([1]Hoja1!A6*([1]Hoja1!A6+1))^0.5</f>
+        <v>10.576581674976708</v>
+      </c>
+      <c r="H7" s="13">
+        <f>Hoja1!$B$2/(2*PI()*Hoja1!$C$2)*([1]Hoja1!A6*([1]Hoja1!A6+1))^0.5+Hoja1!$A$2*Hoja1!$D$2/(2*PI()*Hoja1!$C$2^2)*([1]Hoja1!A6*([1]Hoja1!A6+1))^0.5</f>
+        <v>1.6618202544498798E-3</v>
+      </c>
+      <c r="I7" s="12">
+        <f>ABS(Hoja1!F7-G7)/Hoja1!F7*100</f>
+        <v>35.07767145564123</v>
+      </c>
+      <c r="J7" s="28">
+        <f>SQRT(C7+$D$7^2)/2</f>
+        <v>10.475419883736777</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="37">
+        <f>ABS(J7-F7)/F7*100</f>
+        <v>33.785694556025241</v>
+      </c>
+      <c r="M7" s="24">
+        <f>-$D$7/2</f>
+        <v>-8.9821704204942107E-2</v>
+      </c>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8">
+        <f t="shared" ref="B8:B13" si="0">(1-$F$2/$C$2)/1.006*E8*(E8+1)</f>
+        <v>5.8705849674324542</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C7:C13" si="1">4*$A$7^2*B8</f>
+        <v>1316.7162456244985</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="19">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>14.3</v>
+      </c>
+      <c r="G8" s="11">
+        <f>Hoja1!$A$2/(2*3.14159265359*Hoja1!$C$2)*([1]Hoja1!A7*([1]Hoja1!A7+1))^0.5</f>
+        <v>18.319176831461593</v>
+      </c>
+      <c r="H8" s="10">
+        <f>Hoja1!$B$2/(2*PI()*Hoja1!$C$2)*([1]Hoja1!A7*([1]Hoja1!A7+1))^0.5+Hoja1!$A$2*Hoja1!$D$2/(2*PI()*Hoja1!$C$2^2)*([1]Hoja1!A7*([1]Hoja1!A7+1))^0.5</f>
+        <v>2.8783571137542311E-3</v>
+      </c>
+      <c r="I8" s="9">
+        <f>ABS(Hoja1!F8-G8)/Hoja1!F8*100</f>
+        <v>28.106131688542607</v>
+      </c>
+      <c r="J8" s="28">
+        <f t="shared" ref="J8:J13" si="2">SQRT(C8+$D$7^2)/2</f>
+        <v>18.143514801291147</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="38">
+        <f t="shared" ref="L8:L13" si="3">ABS(J8-F8)/F8*100</f>
+        <v>26.877725883154866</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" ref="M7:M13" si="4">-$D$7/2</f>
+        <v>-8.9821704204942107E-2</v>
+      </c>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>11.741169934864908</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2633.4324912489969</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="21">
+        <v>20.8</v>
+      </c>
+      <c r="G9" s="11">
+        <f>Hoja1!$A$2/(2*3.14159265359*Hoja1!$C$2)*([1]Hoja1!A8*([1]Hoja1!A8+1))^0.5</f>
+        <v>25.90722832656397</v>
+      </c>
+      <c r="H9" s="10">
+        <f>Hoja1!$B$2/(2*PI()*Hoja1!$C$2)*([1]Hoja1!A8*([1]Hoja1!A8+1))^0.5+Hoja1!$A$2*Hoja1!$D$2/(2*PI()*Hoja1!$C$2^2)*([1]Hoja1!A8*([1]Hoja1!A8+1))^0.5</f>
+        <v>4.0706116676243109E-3</v>
+      </c>
+      <c r="I9" s="9">
+        <f>ABS(Hoja1!F9-G9)/Hoja1!F9*100</f>
+        <v>24.553982339249853</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" si="2"/>
+        <v>25.658647484830443</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="38">
+        <f t="shared" si="3"/>
+        <v>23.358882138607893</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="4"/>
+        <v>-8.9821704204942107E-2</v>
+      </c>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>19.568616558108182</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>4389.0541520816614</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+      <c r="F10" s="21">
+        <v>27.3</v>
+      </c>
+      <c r="G10" s="11">
+        <f>Hoja1!$A$2/(2*3.14159265359*Hoja1!$C$2)*([1]Hoja1!A9*([1]Hoja1!A9+1))^0.5</f>
+        <v>33.446087951725104</v>
+      </c>
+      <c r="H10" s="10">
+        <f>Hoja1!$B$2/(2*PI()*Hoja1!$C$2)*([1]Hoja1!A9*([1]Hoja1!A9+1))^0.5+Hoja1!$A$2*Hoja1!$D$2/(2*PI()*Hoja1!$C$2^2)*([1]Hoja1!A9*([1]Hoja1!A9+1))^0.5</f>
+        <v>5.2551370658621864E-3</v>
+      </c>
+      <c r="I10" s="9">
+        <f>ABS(Hoja1!F10-G10)/Hoja1!F10*100</f>
+        <v>22.513142680311734</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" si="2"/>
+        <v>33.12509027850281</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="38">
+        <f t="shared" si="3"/>
+        <v>21.337327027482818</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="4"/>
+        <v>-8.9821704204942107E-2</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>29.352924837162274</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6583.5812281224926</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="19">
+        <v>5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G11" s="11">
+        <f>Hoja1!$A$2/(2*3.14159265359*Hoja1!$C$2)*([1]Hoja1!A10*([1]Hoja1!A10+1))^0.5</f>
+        <v>40.962924686987336</v>
+      </c>
+      <c r="H11" s="10">
+        <f>Hoja1!$B$2/(2*PI()*Hoja1!$C$2)*([1]Hoja1!A10*([1]Hoja1!A10+1))^0.5+Hoja1!$A$2*Hoja1!$D$2/(2*PI()*Hoja1!$C$2^2)*([1]Hoja1!A10*([1]Hoja1!A10+1))^0.5</f>
+        <v>6.4362021698745556E-3</v>
+      </c>
+      <c r="I11" s="9">
+        <f>ABS(Hoja1!F11-G11)/Hoja1!F11*100</f>
+        <v>21.192084872743607</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" si="2"/>
+        <v>40.569734716524451</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="38">
+        <f t="shared" si="3"/>
+        <v>20.028800936462883</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="4"/>
+        <v>-8.9821704204942107E-2</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>41.094094772027177</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>9217.0137193714872</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="19">
+        <v>6</v>
+      </c>
+      <c r="F12" s="21">
+        <v>39.9</v>
+      </c>
+      <c r="G12" s="11">
+        <f>Hoja1!$A$2/(2*3.14159265359*Hoja1!$C$2)*([1]Hoja1!A11*([1]Hoja1!A11+1))^0.5</f>
+        <v>48.467986119463589</v>
+      </c>
+      <c r="H12" s="10">
+        <f>Hoja1!$B$2/(2*PI()*Hoja1!$C$2)*([1]Hoja1!A11*([1]Hoja1!A11+1))^0.5+Hoja1!$A$2*Hoja1!$D$2/(2*PI()*Hoja1!$C$2^2)*([1]Hoja1!A11*([1]Hoja1!A11+1))^0.5</f>
+        <v>7.6154171074273476E-3</v>
+      </c>
+      <c r="I12" s="9">
+        <f>ABS(Hoja1!F12-G12)/Hoja1!F12*100</f>
+        <v>21.473649422214514</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="2"/>
+        <v>48.002723857937667</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="38">
+        <f t="shared" si="3"/>
+        <v>20.307578591322478</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" si="4"/>
+        <v>-8.9821704204942107E-2</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="45">
+        <f t="shared" si="0"/>
+        <v>54.792126362702902</v>
+      </c>
+      <c r="C13" s="45">
+        <f t="shared" si="1"/>
+        <v>12289.351625828651</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="20">
+        <v>7</v>
+      </c>
+      <c r="F13" s="22">
+        <v>45.9</v>
+      </c>
+      <c r="G13" s="8">
+        <f>Hoja1!$A$2/(2*3.14159265359*Hoja1!$C$2)*([1]Hoja1!A12*([1]Hoja1!A12+1))^0.5</f>
+        <v>55.966009666302696</v>
+      </c>
+      <c r="H13" s="7">
+        <f>Hoja1!$B$2/(2*PI()*Hoja1!$C$2)*([1]Hoja1!A12*([1]Hoja1!A12+1))^0.5+Hoja1!$A$2*Hoja1!$D$2/(2*PI()*Hoja1!$C$2^2)*([1]Hoja1!A12*([1]Hoja1!A12+1))^0.5</f>
+        <v>8.7935262339289225E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <f>ABS(Hoja1!F13-G13)/Hoja1!F13*100</f>
+        <v>21.930304283883871</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="2"/>
+        <v>55.428746823247856</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="39">
+        <f t="shared" si="3"/>
+        <v>20.759797000539994</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="4"/>
+        <v>-8.9821704204942107E-2</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="O16" s="46"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>